--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7FC9D9-DF38-41EA-AAB4-FADF4B14C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E459D6C-E5C0-484D-BE83-204BAF0DD910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -193,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66104A0C-A7E3-408A-A35F-25B1B41DC26F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,21 +651,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -673,65 +673,20 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{ABF86FE0-5B8B-4DB7-91D5-560ADD6BA26F}"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=4555457&amp;forPersonCustId=150" xr:uid="{AB478337-9100-44E3-894B-735E8FA12CE1}"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27896534&amp;forPersonCustId=150" xr:uid="{2D300595-48E7-45E8-856A-38CCC7D98102}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=41869449&amp;forPersonCustId=150" xr:uid="{5625F980-F368-4701-B677-AA153736E811}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27896534&amp;forPersonCustId=150" xr:uid="{2D300595-48E7-45E8-856A-38CCC7D98102}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=41869449&amp;forPersonCustId=150" xr:uid="{5625F980-F368-4701-B677-AA153736E811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
